--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2877871.977927159</v>
+        <v>2875952.909218558</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3179217.318918997</v>
+        <v>3179217.318918995</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9092924.861577189</v>
+        <v>9092924.861577187</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>155.8903435161421</v>
+        <v>84.22773893331211</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>43.67005444822593</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>188.6291877254122</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.1311939478779</v>
+        <v>175.1311939478778</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>349.0156130962397</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>270.176392532397</v>
+        <v>14.90981101001586</v>
       </c>
       <c r="H5" t="n">
         <v>335.4507435452152</v>
       </c>
       <c r="I5" t="n">
-        <v>195.3275904817982</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.1869483639561</v>
+        <v>125.1869483639564</v>
       </c>
       <c r="S5" t="n">
-        <v>200.0662568508417</v>
+        <v>200.0662568508418</v>
       </c>
       <c r="T5" t="n">
-        <v>221.3758137879721</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>322.9543726959065</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>12.51738722180778</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>65.87169451546195</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1332829487028</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>167.7781627773429</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3173372775728</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29.31582330900288</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.0254786980388</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29.1773530835704</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>64.64698666087513</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>99.37427387042473</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>24.33624026600984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185817</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>73.21532344290729</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.05123042703076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.046902579171036</v>
       </c>
       <c r="D19" t="n">
-        <v>70.41761368552049</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808146</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263835</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.1466116539215</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552083</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>219.7159066424975</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.50644348718623</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.0916025704962</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.14783846838752</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.844855205746</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3010,10 +3010,10 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>10.02284378725709</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3284,7 +3284,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
         <v>182.9467051201603</v>
@@ -3326,7 +3326,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492309972</v>
+        <v>13.64724492310008</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555816</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
@@ -3563,7 +3563,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338385</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310013</v>
+        <v>13.64724492310015</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555822</v>
+        <v>64.81847467555821</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
         <v>259.6203683404943</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
@@ -3983,7 +3983,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
@@ -3992,10 +3992,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310015</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555784</v>
+        <v>64.81847467555821</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877716</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463068</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.5034879835598</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="C2" t="n">
-        <v>458.5034879835598</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="D2" t="n">
-        <v>458.5034879835598</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="E2" t="n">
-        <v>458.5034879835598</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="F2" t="n">
-        <v>179.5575145468371</v>
+        <v>386.1170187079738</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
         <v>22.09252109618843</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>737.4494614202825</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U2" t="n">
-        <v>737.4494614202825</v>
+        <v>672.0084928939</v>
       </c>
       <c r="V2" t="n">
-        <v>737.4494614202825</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="W2" t="n">
-        <v>737.4494614202825</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="X2" t="n">
-        <v>737.4494614202825</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="Y2" t="n">
-        <v>458.5034879835598</v>
+        <v>393.0625194571773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330.2643857628952</v>
+        <v>284.225426359828</v>
       </c>
       <c r="C3" t="n">
-        <v>330.2643857628952</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D3" t="n">
-        <v>181.329976101644</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>121.6947060708167</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>888.5108759512812</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>660.2922635854288</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>660.2922635854288</v>
       </c>
       <c r="W3" t="n">
-        <v>914.09152175345</v>
+        <v>660.2922635854288</v>
       </c>
       <c r="X3" t="n">
-        <v>706.2400215479172</v>
+        <v>452.4407633798961</v>
       </c>
       <c r="Y3" t="n">
-        <v>498.4797227829633</v>
+        <v>452.4407633798961</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
       <c r="C5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
       <c r="D5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
       <c r="E5" t="n">
-        <v>843.9119281397416</v>
+        <v>388.7662998526916</v>
       </c>
       <c r="F5" t="n">
-        <v>836.9664273905381</v>
+        <v>381.8207991034882</v>
       </c>
       <c r="G5" t="n">
-        <v>564.0609803881169</v>
+        <v>366.760383941856</v>
       </c>
       <c r="H5" t="n">
-        <v>225.2218454939601</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="I5" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="J5" t="n">
-        <v>49.10710709085458</v>
+        <v>49.10710709085402</v>
       </c>
       <c r="K5" t="n">
-        <v>201.6040206780771</v>
+        <v>201.604020678076</v>
       </c>
       <c r="L5" t="n">
-        <v>443.0665542247668</v>
+        <v>443.0665542247651</v>
       </c>
       <c r="M5" t="n">
-        <v>728.3466931177614</v>
+        <v>728.3466931177591</v>
       </c>
       <c r="N5" t="n">
-        <v>1003.610965363435</v>
+        <v>1003.610965363431</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.34757423859</v>
+        <v>1218.347574238586</v>
       </c>
       <c r="P5" t="n">
-        <v>1363.94591889897</v>
+        <v>1363.945918898965</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.062452384964</v>
+        <v>1396.062452384959</v>
       </c>
       <c r="R5" t="n">
-        <v>1269.610989391069</v>
+        <v>1269.610989391064</v>
       </c>
       <c r="S5" t="n">
-        <v>1067.523861258905</v>
+        <v>1067.5238612589</v>
       </c>
       <c r="T5" t="n">
-        <v>843.9119281397416</v>
+        <v>1067.5238612589</v>
       </c>
       <c r="U5" t="n">
-        <v>843.9119281397416</v>
+        <v>1067.5238612589</v>
       </c>
       <c r="V5" t="n">
-        <v>843.9119281397416</v>
+        <v>1067.5238612589</v>
       </c>
       <c r="W5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
       <c r="X5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
       <c r="Y5" t="n">
-        <v>843.9119281397416</v>
+        <v>741.3073231822268</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.0832081626663</v>
+        <v>328.0179518104762</v>
       </c>
       <c r="C6" t="n">
-        <v>402.6301788815393</v>
+        <v>315.3741263339027</v>
       </c>
       <c r="D6" t="n">
-        <v>253.6957692202881</v>
+        <v>166.4397166726515</v>
       </c>
       <c r="E6" t="n">
-        <v>94.45831421483257</v>
+        <v>166.4397166726515</v>
       </c>
       <c r="F6" t="n">
-        <v>27.92124904769928</v>
+        <v>166.4397166726515</v>
       </c>
       <c r="G6" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="H6" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="I6" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="J6" t="n">
-        <v>46.84602127754196</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="K6" t="n">
-        <v>205.8123144265249</v>
+        <v>88.3883112602399</v>
       </c>
       <c r="L6" t="n">
-        <v>480.9665095111914</v>
+        <v>88.3883112602399</v>
       </c>
       <c r="M6" t="n">
-        <v>480.9665095111914</v>
+        <v>433.9137682255172</v>
       </c>
       <c r="N6" t="n">
-        <v>779.4392251907984</v>
+        <v>779.4392251907946</v>
       </c>
       <c r="O6" t="n">
-        <v>1077.712506292589</v>
+        <v>1077.712506292584</v>
       </c>
       <c r="P6" t="n">
-        <v>1300.100042936341</v>
+        <v>1300.100042936336</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.062452384964</v>
+        <v>1396.062452384959</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.062452384964</v>
+        <v>1396.062452384959</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.062452384964</v>
+        <v>1226.589560690673</v>
       </c>
       <c r="T6" t="n">
-        <v>1396.062452384964</v>
+        <v>1025.258916975953</v>
       </c>
       <c r="U6" t="n">
-        <v>1396.062452384964</v>
+        <v>1025.258916975953</v>
       </c>
       <c r="V6" t="n">
-        <v>1160.910344153221</v>
+        <v>790.1068087442106</v>
       </c>
       <c r="W6" t="n">
-        <v>1160.910344153221</v>
+        <v>535.8694520160091</v>
       </c>
       <c r="X6" t="n">
-        <v>953.0588439476883</v>
+        <v>328.0179518104762</v>
       </c>
       <c r="Y6" t="n">
-        <v>745.2985451827344</v>
+        <v>328.0179518104762</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.53319178406582</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="C7" t="n">
-        <v>57.53319178406582</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="D7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="E7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="F7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="G7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="H7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="I7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="J7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="K7" t="n">
-        <v>27.92124904769928</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="L7" t="n">
-        <v>81.17739274291938</v>
+        <v>81.17739274291903</v>
       </c>
       <c r="M7" t="n">
-        <v>147.7176523016993</v>
+        <v>147.7176523016986</v>
       </c>
       <c r="N7" t="n">
-        <v>218.1103496348173</v>
+        <v>218.1103496348165</v>
       </c>
       <c r="O7" t="n">
-        <v>267.1131034956773</v>
+        <v>267.1131034956762</v>
       </c>
       <c r="P7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="Q7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="R7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="S7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="T7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="U7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="V7" t="n">
-        <v>285.5227426820832</v>
+        <v>285.5227426820819</v>
       </c>
       <c r="W7" t="n">
-        <v>285.5227426820832</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="X7" t="n">
-        <v>57.53319178406582</v>
+        <v>27.92124904769918</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.53319178406582</v>
+        <v>27.92124904769918</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C8" t="n">
-        <v>902.4179758042681</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D8" t="n">
-        <v>544.1522771975176</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="E8" t="n">
-        <v>544.1522771975176</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>133.16637240791</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2429683465009</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>119.2429683465009</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,31 +4881,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,28 +5106,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9958217162125</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.205570896703</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W13" t="n">
-        <v>895.7884008597426</v>
+        <v>130.9054447954962</v>
       </c>
       <c r="X13" t="n">
-        <v>895.7884008597426</v>
+        <v>130.9054447954962</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.9958217162125</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5297,7 +5297,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383436</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383436</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383436</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>447.0175521403263</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.4001476685781</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5525,16 +5525,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729332</v>
+        <v>102.3149728533879</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937156</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969359</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>807.0577537630737</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>807.0577537630737</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146764</v>
+        <v>528.7927567823872</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729332</v>
+        <v>311.955378940644</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729332</v>
+        <v>102.3149728533879</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366504</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937161</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172996</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969367</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449756</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953629</v>
+        <v>841.5019043436291</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146764</v>
+        <v>563.2369073629426</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729332</v>
+        <v>346.3995295211994</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7591234339434</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937155</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969364</v>
+        <v>822.784955196936</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.724986903317</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U25" t="n">
-        <v>1095.748521173149</v>
+        <v>807.0577537630743</v>
       </c>
       <c r="V25" t="n">
-        <v>852.216206023536</v>
+        <v>585.1224945282283</v>
       </c>
       <c r="W25" t="n">
-        <v>573.9512090428494</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="X25" t="n">
-        <v>357.1138312011062</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y25" t="n">
-        <v>267.7133832342514</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6239,10 +6239,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.1138312011067</v>
+        <v>179.1846050647177</v>
       </c>
       <c r="C28" t="n">
-        <v>199.3298213294739</v>
+        <v>179.1846050647177</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>179.1846050647177</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>179.1846050647177</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937158</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1373.724986903317</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U28" t="n">
-        <v>1095.748521173149</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>852.2162060235362</v>
+        <v>776.1586807676824</v>
       </c>
       <c r="W28" t="n">
-        <v>573.9512090428498</v>
+        <v>776.1586807676824</v>
       </c>
       <c r="X28" t="n">
-        <v>357.1138312011067</v>
+        <v>559.3213029259392</v>
       </c>
       <c r="Y28" t="n">
-        <v>357.1138312011067</v>
+        <v>349.6808968386833</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.1138312011068</v>
+        <v>336.5639761381258</v>
       </c>
       <c r="C31" t="n">
-        <v>357.1138312011068</v>
+        <v>336.5639761381258</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1138312011068</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="E31" t="n">
-        <v>357.1138312011068</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="F31" t="n">
-        <v>254.2402400841911</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,13 +6622,13 @@
         <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1373.724986903317</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>1095.748521173149</v>
+        <v>807.0577537630747</v>
       </c>
       <c r="V31" t="n">
-        <v>852.2162060235364</v>
+        <v>563.525438613462</v>
       </c>
       <c r="W31" t="n">
-        <v>573.95120904285</v>
+        <v>553.401353979869</v>
       </c>
       <c r="X31" t="n">
-        <v>357.1138312011068</v>
+        <v>336.5639761381258</v>
       </c>
       <c r="Y31" t="n">
-        <v>357.1138312011068</v>
+        <v>336.5639761381258</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436857</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872888</v>
+        <v>676.7913636872901</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922887</v>
+        <v>329.4856801922892</v>
       </c>
       <c r="H35" t="n">
         <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>700.8111679228793</v>
+        <v>713.9073046683856</v>
       </c>
       <c r="L35" t="n">
-        <v>988.9307215617316</v>
+        <v>1415.511460712184</v>
       </c>
       <c r="M35" t="n">
-        <v>1786.207075281622</v>
+        <v>1767.76941627417</v>
       </c>
       <c r="N35" t="n">
-        <v>2581.752196385653</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.783077959731</v>
+        <v>2836.364143234532</v>
       </c>
       <c r="P35" t="n">
-        <v>3475.683043215534</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R35" t="n">
         <v>3807.485832605501</v>
@@ -6968,19 +6968,19 @@
         <v>3600.244041813158</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>638.3057309129963</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>945.6258641929578</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499443</v>
+        <v>1704.902529058995</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.84914171814</v>
+        <v>1984.442594277692</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q36" t="n">
         <v>2591.876118470662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026569</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C37" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F37" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G37" t="n">
         <v>200.4621344021371</v>
@@ -7090,16 +7090,16 @@
         <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7117,28 +7117,28 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
         <v>1844.09853413394</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963445</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928555</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D38" t="n">
         <v>1335.925338995059</v>
@@ -7163,61 +7163,61 @@
         <v>676.7913636872895</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922886</v>
+        <v>329.4856801922887</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402894</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
         <v>177.4083093538498</v>
       </c>
       <c r="K38" t="n">
-        <v>700.8111679228793</v>
+        <v>379.9072094774264</v>
       </c>
       <c r="L38" t="n">
-        <v>988.9307215617316</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M38" t="n">
-        <v>1786.207075281622</v>
+        <v>1878.787719241115</v>
       </c>
       <c r="N38" t="n">
-        <v>2566.560397466918</v>
+        <v>2241.359385177281</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040996</v>
+        <v>2947.382446201477</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296799</v>
+        <v>3512.28241145728</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
         <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>242.4709188044723</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065322</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>638.3057309129962</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1311.024358361838</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499443</v>
+        <v>1640.886986025871</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.84914171814</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026566</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147907</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.980224042496</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422755</v>
+        <v>299.817365042275</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901211</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K40" t="n">
-        <v>373.61895581732</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7351,10 +7351,10 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S40" t="n">
         <v>1844.09853413394</v>
@@ -7366,16 +7366,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.363186054321</v>
+        <v>1062.36318605432</v>
       </c>
       <c r="X40" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
@@ -7397,64 +7397,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922891</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
         <v>89.93481253402936</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>344.8139583742028</v>
       </c>
       <c r="K41" t="n">
-        <v>800.9073284422717</v>
+        <v>547.3128584977793</v>
       </c>
       <c r="L41" t="n">
-        <v>1502.51148448607</v>
+        <v>1248.917014541577</v>
       </c>
       <c r="M41" t="n">
-        <v>2299.78783820596</v>
+        <v>2046.193368261468</v>
       </c>
       <c r="N41" t="n">
-        <v>3095.332959309991</v>
+        <v>2659.113644053409</v>
       </c>
       <c r="O41" t="n">
-        <v>3424.363840884069</v>
+        <v>3365.136705077605</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050104</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>266.7104780195275</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L42" t="n">
-        <v>513.4756059259915</v>
+        <v>880.6075477764161</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.399103845682</v>
+        <v>1187.927681056378</v>
       </c>
       <c r="N42" t="n">
-        <v>2030.810682109833</v>
+        <v>1992.339259320528</v>
       </c>
       <c r="O42" t="n">
-        <v>2310.35074732853</v>
+        <v>2271.879324539225</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.373228110739</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026571</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173195</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L43" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N43" t="n">
         <v>1365.793566308212</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="44">
@@ -7634,55 +7634,55 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922891</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402938</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742028</v>
       </c>
       <c r="K44" t="n">
-        <v>700.8111679228793</v>
+        <v>868.2168169432324</v>
       </c>
       <c r="L44" t="n">
-        <v>988.9307215617316</v>
+        <v>1569.82097298703</v>
       </c>
       <c r="M44" t="n">
-        <v>1786.207075281622</v>
+        <v>1922.078928549017</v>
       </c>
       <c r="N44" t="n">
-        <v>2566.560397466918</v>
+        <v>2717.624049653048</v>
       </c>
       <c r="O44" t="n">
-        <v>2895.591279040996</v>
+        <v>3046.654931227125</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296799</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
         <v>2869.25802964303</v>
@@ -7691,7 +7691,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>242.4709188044723</v>
       </c>
       <c r="K45" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065322</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1263155554491</v>
+        <v>638.3057309129962</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.446448835411</v>
+        <v>1311.024358361838</v>
       </c>
       <c r="N45" t="n">
-        <v>1537.309076499443</v>
+        <v>1640.886986025871</v>
       </c>
       <c r="O45" t="n">
-        <v>1816.84914171814</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026568</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001442</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422749</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021365</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901208</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
         <v>155.9829803443641</v>
@@ -7825,7 +7825,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
@@ -7840,16 +7840,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963445</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>219.9154419796177</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>256.677702939222</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>106.9751037951134</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>164.971064349506</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>92.90681491490753</v>
       </c>
       <c r="M6" t="n">
-        <v>88.86547878114067</v>
+        <v>437.8810918773809</v>
       </c>
       <c r="N6" t="n">
-        <v>378.150888388972</v>
+        <v>425.6789098896497</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>188.8856946302407</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>9.900512684486046</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>168.2772183541476</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.9697392268384</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>433.7515527292973</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>422.0016729789186</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>100.1752906932932</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>369.0893880493738</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>256.1560302469619</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,10 +11069,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>252.8773836927019</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229588</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>422.0016729789186</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.6987614651306</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>369.0893880493738</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>227.8014030578182</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.2331835502366</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.705486540696</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>162.533422925064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>168.791328856226</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>151.1592671937454</v>
       </c>
       <c r="D19" t="n">
-        <v>67.15720800698044</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856066</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.0969919981167</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376662</v>
+        <v>116.3063054837447</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>21.38108535561916</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.0375585391971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>36.48321912200477</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>53.2325582288323</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>32.53554149147378</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>265.4595032236225</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6.750155989720952e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810330.4285410257</v>
+        <v>810330.4285410256</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772020.8270221492</v>
+        <v>772020.827022149</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772020.8270221492</v>
+        <v>772020.827022149</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772020.8270221492</v>
+        <v>772020.827022149</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772020.8270221492</v>
+        <v>772020.8270221491</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772020.8270221492</v>
+        <v>772020.8270221491</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="G2" t="n">
-        <v>650409.664177714</v>
+        <v>650409.6641777141</v>
       </c>
       <c r="H2" t="n">
-        <v>650409.6641777143</v>
+        <v>650409.6641777146</v>
       </c>
       <c r="I2" t="n">
-        <v>650409.664177715</v>
+        <v>650409.6641777146</v>
       </c>
       <c r="J2" t="n">
         <v>650409.664177715</v>
       </c>
       <c r="K2" t="n">
-        <v>650409.6641777147</v>
+        <v>650409.6641777148</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="N2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.460138033</v>
       </c>
       <c r="P2" t="n">
         <v>677359.4601380335</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>80650.87494603658</v>
+        <v>80650.87494603537</v>
       </c>
       <c r="D3" t="n">
-        <v>340837.792797631</v>
+        <v>340837.7927976322</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569132</v>
+        <v>8832.521060569066</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113917</v>
       </c>
       <c r="K3" t="n">
-        <v>18751.60069280552</v>
+        <v>18751.60069280522</v>
       </c>
       <c r="L3" t="n">
-        <v>136828.841718295</v>
+        <v>136828.8417182953</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762899</v>
+        <v>69175.08933762908</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>294099.5619298043</v>
+        <v>294099.5619298047</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="G4" t="n">
-        <v>47194.34598600486</v>
+        <v>47194.34598600482</v>
       </c>
       <c r="H4" t="n">
+        <v>47194.34598600483</v>
+      </c>
+      <c r="I4" t="n">
         <v>47194.34598600485</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>47194.34598600488</v>
       </c>
-      <c r="J4" t="n">
-        <v>47194.3459860049</v>
-      </c>
       <c r="K4" t="n">
-        <v>47194.34598600489</v>
+        <v>47194.34598600487</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448606</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766783</v>
+        <v>99837.12979766789</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56978.49148188655</v>
+        <v>56978.49148188646</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,7 +26488,7 @@
         <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
@@ -26497,19 +26497,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581176</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182957.7707375284</v>
+        <v>182957.770737528</v>
       </c>
       <c r="C6" t="n">
-        <v>245630.531780306</v>
+        <v>245630.5317803069</v>
       </c>
       <c r="D6" t="n">
-        <v>61455.99288456343</v>
+        <v>61455.99288456212</v>
       </c>
       <c r="E6" t="n">
-        <v>-15510.83534155876</v>
+        <v>-15608.29446753109</v>
       </c>
       <c r="F6" t="n">
-        <v>509649.2011353372</v>
+        <v>509551.7420093653</v>
       </c>
       <c r="G6" t="n">
-        <v>501467.2946661222</v>
+        <v>501385.6286177578</v>
       </c>
       <c r="H6" t="n">
-        <v>510299.8157266916</v>
+        <v>510218.1496783274</v>
       </c>
       <c r="I6" t="n">
-        <v>510299.8157266922</v>
+        <v>510218.1496783274</v>
       </c>
       <c r="J6" t="n">
-        <v>438045.1208555531</v>
+        <v>437963.4548071885</v>
       </c>
       <c r="K6" t="n">
-        <v>491548.2150338865</v>
+        <v>491466.5489855222</v>
       </c>
       <c r="L6" t="n">
-        <v>376835.3038752273</v>
+        <v>376835.303875227</v>
       </c>
       <c r="M6" t="n">
-        <v>426643.3400369246</v>
+        <v>426643.3400369249</v>
       </c>
       <c r="N6" t="n">
+        <v>495818.4293745544</v>
+      </c>
+      <c r="O6" t="n">
         <v>495818.4293745539</v>
-      </c>
-      <c r="O6" t="n">
-        <v>495818.4293745534</v>
       </c>
       <c r="P6" t="n">
         <v>495818.4293745539</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>11.04065132571133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.04065132571136</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.04065132571136</v>
+      </c>
+      <c r="J2" t="n">
         <v>11.04065132571142</v>
       </c>
-      <c r="H2" t="n">
-        <v>11.04065132571142</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.04065132571142</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.04065132571143</v>
-      </c>
       <c r="K2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>97.74046814839939</v>
+        <v>97.74046814839843</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>349.0156130962409</v>
+        <v>349.0156130962397</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26920,28 +26920,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>62.71920742927404</v>
+        <v>62.71920742927314</v>
       </c>
       <c r="D3" t="n">
-        <v>280.0031960686873</v>
+        <v>280.0031960686882</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>72.85909939388549</v>
+        <v>72.85909939388432</v>
       </c>
       <c r="D4" t="n">
-        <v>325.2716596583147</v>
+        <v>325.2716596583159</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>72.85909939388549</v>
+        <v>72.85909939388432</v>
       </c>
       <c r="L4" t="n">
-        <v>325.2716596583144</v>
+        <v>325.2716596583159</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968194</v>
+        <v>277.5841853968197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>72.85909939388549</v>
+        <v>72.85909939388432</v>
       </c>
       <c r="L4" t="n">
-        <v>325.2716596583147</v>
+        <v>325.2716596583159</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>259.2716050111774</v>
+        <v>330.9342095940074</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194542</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>156.1910465239459</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>63.06579543550743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.45345940421689</v>
+        <v>43.45345940421694</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>32.91475697602203</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>144.7334184776189</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>195.3275904817984</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.3758137879721</v>
       </c>
       <c r="U5" t="n">
         <v>251.314218787427</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>26.28659602150651</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.191111766508</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>79.19751787792192</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1332829487027</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.2050243226967</v>
       </c>
       <c r="I6" t="n">
-        <v>82.15830572910437</v>
+        <v>82.15830572910444</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.10487125539085</v>
+        <v>87.10487125539098</v>
       </c>
       <c r="S6" t="n">
-        <v>167.7781627773428</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3173372775727</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9275508826519</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>119.2996497092095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,10 +27795,10 @@
         <v>150.1500574086533</v>
       </c>
       <c r="J7" t="n">
-        <v>80.89807157913012</v>
+        <v>80.89807157913025</v>
       </c>
       <c r="K7" t="n">
-        <v>1.792062597414922</v>
+        <v>1.792062597415121</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.40323256128607</v>
+        <v>71.40323256128622</v>
       </c>
       <c r="R7" t="n">
-        <v>169.3684019433665</v>
+        <v>169.3684019433666</v>
       </c>
       <c r="S7" t="n">
         <v>220.9449836527021</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>31.49751963855218</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>352.7530169886914</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>87.28432958398612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>152.7633694534033</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964105</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964204</v>
       </c>
       <c r="C41" t="n">
         <v>68.13189012964064</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964102</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964136</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3929265051191932</v>
+        <v>0.3929265051191894</v>
       </c>
       <c r="H5" t="n">
-        <v>4.024058570551938</v>
+        <v>4.024058570551899</v>
       </c>
       <c r="I5" t="n">
-        <v>15.14829908860771</v>
+        <v>15.14829908860756</v>
       </c>
       <c r="J5" t="n">
-        <v>33.34914596386015</v>
+        <v>33.34914596385983</v>
       </c>
       <c r="K5" t="n">
-        <v>49.98172492555562</v>
+        <v>49.98172492555513</v>
       </c>
       <c r="L5" t="n">
-        <v>62.00674945659713</v>
+        <v>62.00674945659653</v>
       </c>
       <c r="M5" t="n">
-        <v>68.99445619201059</v>
+        <v>68.99445619200992</v>
       </c>
       <c r="N5" t="n">
-        <v>70.1108586246805</v>
+        <v>70.11085862467982</v>
       </c>
       <c r="O5" t="n">
-        <v>66.20369568940151</v>
+        <v>66.20369568940087</v>
       </c>
       <c r="P5" t="n">
-        <v>56.50332259427142</v>
+        <v>56.50332259427088</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.4316421296903</v>
+        <v>42.43164212968989</v>
       </c>
       <c r="R5" t="n">
-        <v>24.68216957719354</v>
+        <v>24.6821695771933</v>
       </c>
       <c r="S5" t="n">
-        <v>8.953812735403625</v>
+        <v>8.953812735403536</v>
       </c>
       <c r="T5" t="n">
-        <v>1.720035776159269</v>
+        <v>1.720035776159252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03143412040953545</v>
+        <v>0.03143412040953514</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2102342145078779</v>
+        <v>0.2102342145078759</v>
       </c>
       <c r="H6" t="n">
-        <v>2.030419913799769</v>
+        <v>2.030419913799749</v>
       </c>
       <c r="I6" t="n">
-        <v>7.238327122310711</v>
+        <v>7.23832712231064</v>
       </c>
       <c r="J6" t="n">
-        <v>19.86252287155351</v>
+        <v>19.86252287155331</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94821524358132</v>
+        <v>33.948215243581</v>
       </c>
       <c r="L6" t="n">
-        <v>45.64756486496709</v>
+        <v>45.64756486496665</v>
       </c>
       <c r="M6" t="n">
-        <v>53.26855514087766</v>
+        <v>53.26855514087714</v>
       </c>
       <c r="N6" t="n">
-        <v>54.67841528992392</v>
+        <v>54.67841528992339</v>
       </c>
       <c r="O6" t="n">
-        <v>50.02006769477568</v>
+        <v>50.02006769477519</v>
       </c>
       <c r="P6" t="n">
-        <v>40.14551417212277</v>
+        <v>40.14551417212238</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.83621306595298</v>
+        <v>26.83621306595272</v>
       </c>
       <c r="R6" t="n">
-        <v>13.05296289725229</v>
+        <v>13.05296289725216</v>
       </c>
       <c r="S6" t="n">
-        <v>3.905008326495011</v>
+        <v>3.905008326494973</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8473914172488586</v>
+        <v>0.8473914172488503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01383119832288671</v>
+        <v>0.01383119832288658</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1762533032184251</v>
+        <v>0.1762533032184234</v>
       </c>
       <c r="H7" t="n">
-        <v>1.567052095887453</v>
+        <v>1.567052095887438</v>
       </c>
       <c r="I7" t="n">
-        <v>5.300417518605004</v>
+        <v>5.300417518604952</v>
       </c>
       <c r="J7" t="n">
-        <v>12.46110853754265</v>
+        <v>12.46110853754253</v>
       </c>
       <c r="K7" t="n">
-        <v>20.47742922846793</v>
+        <v>20.47742922846773</v>
       </c>
       <c r="L7" t="n">
-        <v>26.20405928031023</v>
+        <v>26.20405928030997</v>
       </c>
       <c r="M7" t="n">
-        <v>27.6285064308664</v>
+        <v>27.62850643086613</v>
       </c>
       <c r="N7" t="n">
-        <v>26.97156230068865</v>
+        <v>26.97156230068839</v>
       </c>
       <c r="O7" t="n">
-        <v>24.91260325854613</v>
+        <v>24.91260325854589</v>
       </c>
       <c r="P7" t="n">
-        <v>21.31703587289024</v>
+        <v>21.31703587289003</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.75881069040831</v>
+        <v>14.75881069040816</v>
       </c>
       <c r="R7" t="n">
-        <v>7.924989433803003</v>
+        <v>7.924989433802926</v>
       </c>
       <c r="S7" t="n">
-        <v>3.071614384270189</v>
+        <v>3.071614384270159</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7530822955696344</v>
+        <v>0.753082295569627</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009613816539186835</v>
+        <v>0.009613816539186741</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>94.2379440986175</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>144.9277431142228</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.39985660924764</v>
+        <v>21.39985660924732</v>
       </c>
       <c r="K5" t="n">
-        <v>154.0372864517398</v>
+        <v>154.0372864517393</v>
       </c>
       <c r="L5" t="n">
-        <v>243.9015490370603</v>
+        <v>243.9015490370597</v>
       </c>
       <c r="M5" t="n">
-        <v>288.1617564575703</v>
+        <v>288.1617564575697</v>
       </c>
       <c r="N5" t="n">
-        <v>278.0447194400738</v>
+        <v>278.0447194400731</v>
       </c>
       <c r="O5" t="n">
-        <v>216.9056655304601</v>
+        <v>216.9056655304595</v>
       </c>
       <c r="P5" t="n">
-        <v>147.0690350104845</v>
+        <v>147.069035010484</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.4409429151455</v>
+        <v>32.44094291514509</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>19.11593154529565</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>160.5720132818009</v>
+        <v>61.077840618728</v>
       </c>
       <c r="L6" t="n">
-        <v>277.9335303885521</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>349.0156130962397</v>
       </c>
       <c r="N6" t="n">
-        <v>301.4875915955627</v>
+        <v>349.0156130962397</v>
       </c>
       <c r="O6" t="n">
-        <v>301.2861425270607</v>
+        <v>301.2861425270603</v>
       </c>
       <c r="P6" t="n">
-        <v>224.6338753977297</v>
+        <v>224.6338753977293</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.93172671578057</v>
+        <v>96.9317267157803</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>53.79408454062636</v>
+        <v>53.79408454062611</v>
       </c>
       <c r="M7" t="n">
-        <v>67.21238339270698</v>
+        <v>67.21238339270671</v>
       </c>
       <c r="N7" t="n">
-        <v>71.10373467991724</v>
+        <v>71.10373467991698</v>
       </c>
       <c r="O7" t="n">
-        <v>49.4977311725858</v>
+        <v>49.49773117258556</v>
       </c>
       <c r="P7" t="n">
-        <v>18.59559513778373</v>
+        <v>18.59559513778352</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35981,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127685</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.2548382056398</v>
       </c>
       <c r="M19" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313149</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758608</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127688</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36288,16 +36288,16 @@
         <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313149</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,7 +36443,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127688</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
@@ -36525,16 +36525,16 @@
         <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313149</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36759,7 +36759,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713488</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>320.3248897349523</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>372.8215619133159</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>335.1543327171385</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>766.9461261273101</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686864</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,28 +37543,28 @@
         <v>102.2814067694341</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>204.5443435591682</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>788.2356789750463</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>238.3598841835933</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>679.51376509984</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>460.7003738061301</v>
+        <v>204.5443435591682</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37789,10 +37789,10 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>619.1113896888296</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>248.8073173394296</v>
@@ -37801,7 +37801,7 @@
         <v>138.1845934903001</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>720.124745373425</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N44" t="n">
-        <v>788.2356789750463</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.5060788045603</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903001</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>679.51376509984</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
